--- a/xlsx/伊利诺伊州_intext.xlsx
+++ b/xlsx/伊利诺伊州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="711">
   <si>
     <t>伊利诺伊州</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_伊利诺伊州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_伊利诺伊州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E6%96%AF%C2%B7%E6%9C%97%E7%B4%8D</t>
   </si>
   <si>
-    <t>布魯斯·朗納</t>
+    <t>布鲁斯·朗纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Illinois</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%C2%B7%E5%BE%B7%E8%B3%93</t>
   </si>
   <si>
-    <t>迪克·德賓</t>
+    <t>迪克·德宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E7%A7%91%E5%85%8B</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -215,9 +215,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
   </si>
   <si>
@@ -233,19 +230,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>伊利諾伊領地</t>
+    <t>伊利诺伊领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E6%B9%96</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
+    <t>爱荷华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
   </si>
   <si>
-    <t>縣</t>
+    <t>县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%85%8B%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%8A%A0%E8%92%99%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>桑加蒙縣 (伊利諾伊州)</t>
+    <t>桑加蒙县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國民生產總值</t>
+    <t>国民生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E4%B8%9A%E7%8E%87</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
@@ -359,19 +356,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%8D%E8%B2%AB</t>
   </si>
   <si>
-    <t>籍貫</t>
+    <t>籍贯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E4%BA%BA</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>浸信會</t>
+    <t>浸信会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E5%AE%97</t>
@@ -449,19 +446,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%AE%97</t>
   </si>
   <si>
-    <t>衛理宗</t>
+    <t>卫理宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E5%AE%97</t>
   </si>
   <si>
-    <t>長老宗</t>
+    <t>长老宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>聖公會</t>
+    <t>圣公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -473,13 +470,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
+    <t>犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E9%87%91_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃爾金 (伊利諾州)</t>
+    <t>埃尔金 (伊利诺州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E7%BD%97%E6%8B%89</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%A5%A7%E9%87%8C%E4%BA%9E_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>皮奧里亞 (伊利諾州)</t>
+    <t>皮奥里亚 (伊利诺州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%B7%B4%E7%BA%B3_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥州立大學</t>
+    <t>芝加哥州立大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eastern_Illinois_University</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>州長州立大學</t>
+    <t>州长州立大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/University_Park,_Illinois</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%BB%98%E7%88%BE</t>
   </si>
   <si>
-    <t>諾默爾</t>
+    <t>诺默尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%A4%A7%E5%AD%A6</t>
@@ -599,37 +596,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%89%9B</t>
   </si>
   <si>
-    <t>美剛</t>
+    <t>美刚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊利諾大學</t>
+    <t>伊利诺大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>伊利諾大學芝加哥分校</t>
+    <t>伊利诺大学芝加哥分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8%E6%98%A5%E7%94%B0%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>伊利諾大學春田分校</t>
+    <t>伊利诺大学春田分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%A4%A7%E5%AD%B8%E5%8E%84%E5%B7%B4%E7%B4%8D-%E9%A6%99%E6%AA%B3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>伊利諾大學厄巴納-香檳分校</t>
+    <t>伊利诺大学厄巴纳-香槟分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%AA%B3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>香檳 (伊利諾州)</t>
+    <t>香槟 (伊利诺州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Southern_Illinois_University</t>
@@ -677,13 +674,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>伊利諾理工學院</t>
+    <t>伊利诺理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E6%B4%9B%E7%B4%84%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥洛約拉大學</t>
+    <t>芝加哥洛约拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E4%BF%9D%E7%BD%97%E5%A4%A7%E5%AD%A6</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅斯福大學</t>
+    <t>罗斯福大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rush_University</t>
@@ -719,13 +716,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>美國航空</t>
+    <t>美国航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>聯合航空</t>
+    <t>联合航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E4%B8%AD%E9%80%94%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -743,13 +740,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E6%9C%8D%E5%8B%99%E8%99%9F</t>
   </si>
   <si>
-    <t>林肯服務號</t>
+    <t>林肯服务号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/55%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>55號州際公路</t>
+    <t>55号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/57%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/70%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>70號州際公路</t>
+    <t>70号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/72%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -773,31 +770,31 @@
     <t>https://zh.wikipedia.org/wiki/74%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>74號州際公路</t>
+    <t>74号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/80%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>80號州際公路</t>
+    <t>80号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/90%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>90號州際公路</t>
+    <t>90号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/94%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>94號州際公路</t>
+    <t>94号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/294%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>294號州際公路 (伊利諾州)</t>
+    <t>294号州际公路 (伊利诺州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFL</t>
@@ -815,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%B0%8F%E7%86%8A</t>
@@ -827,19 +824,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%99%BD%E8%A5%AA</t>
   </si>
   <si>
-    <t>芝加哥白襪</t>
+    <t>芝加哥白袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E9%81%8B%E5%8B%95%E5%AE%B6</t>
   </si>
   <si>
-    <t>奧克蘭運動家</t>
+    <t>奥克兰运动家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E9%BB%91%E9%B7%B9%E9%9A%8A</t>
   </si>
   <si>
-    <t>芝加哥黑鷹隊</t>
+    <t>芝加哥黑鹰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -881,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -971,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1019,9 +1016,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -1031,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1085,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1103,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1157,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
@@ -1169,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1181,19 +1175,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1211,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1223,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1235,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1247,25 +1241,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1295,9 +1289,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾伊州</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/History_of_Illinois</t>
   </si>
   <si>
@@ -1337,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/American_Bottom</t>
@@ -1361,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E9%83%BD%E5%B8%82%E5%8D%80</t>
   </si>
   <si>
-    <t>芝加哥大都市區</t>
+    <t>芝加哥大都市区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Driftless_Area</t>
@@ -1415,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%8A%E5%BE%B7%E5%9F%8E</t>
   </si>
   <si>
-    <t>闊德城</t>
+    <t>阔德城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/River_Bend_(Illinois)</t>
@@ -1427,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E6%9D%B1%E5%8D%80</t>
   </si>
   <si>
-    <t>都會東區</t>
+    <t>都会东区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wabash_Valley</t>
@@ -1499,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%88%A9%E5%9F%83%E7%89%B9_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>喬利埃特 (伊利諾州)</t>
+    <t>乔利埃特 (伊利诺州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kankakee,_Illinois</t>
@@ -1523,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%8F%80%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>內珀維爾</t>
+    <t>内珀维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%A5%A5%E9%87%8C%E4%BA%9A_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1547,13 +1538,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>亞當斯縣 (伊利諾伊州)</t>
+    <t>亚当斯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>亞歷山大縣 (伊利諾伊州)</t>
+    <t>亚历山大县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%BE%B7%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1565,49 +1556,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%81%A9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布恩縣 (伊利諾伊州)</t>
+    <t>布恩县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布朗縣 (伊利諾伊州)</t>
+    <t>布朗县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%BE%85%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>比羅縣 (伊利諾伊州)</t>
+    <t>比罗县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E9%9C%8D%E6%81%A9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡爾霍恩縣 (伊利諾伊州)</t>
+    <t>卡尔霍恩县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E7%88%BE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡洛爾縣 (伊利諾伊州)</t>
+    <t>卡洛尔县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡斯縣 (伊利諾伊州)</t>
+    <t>卡斯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E8%92%82%E5%AE%89%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里斯蒂安縣 (伊利諾伊州)</t>
+    <t>克里斯蒂安县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克拉克縣 (伊利諾伊州)</t>
+    <t>克拉克县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1619,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%9E%97%E9%A0%93%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克林頓縣 (伊利諾伊州)</t>
+    <t>克林顿县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B0%94%E6%96%AF%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1631,31 +1622,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫克縣 (伊利諾伊州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克勞福德縣 (伊利諾伊州)</t>
+    <t>克劳福德县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BC%AF%E8%98%AD%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坎伯蘭縣 (伊利諾伊州)</t>
+    <t>坎伯兰县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%A8%81%E7%89%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>德威特縣 (伊利諾伊州)</t>
+    <t>德威特县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>道格拉斯縣 (伊利諾伊州)</t>
+    <t>道格拉斯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E4%BD%A9%E5%A5%87%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1667,25 +1655,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E5%8A%A0%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃德加縣 (伊利諾伊州)</t>
+    <t>埃德加县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%E8%8C%B2%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>愛德華茲縣 (伊利諾伊州)</t>
+    <t>爱德华兹县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%8A%AC%E6%BC%A2%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃芬漢縣 (伊利諾伊州)</t>
+    <t>埃芬汉县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E8%80%B6%E7%89%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費耶特縣 (伊利諾伊州)</t>
+    <t>费耶特县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1697,55 +1685,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>富蘭克林縣 (伊利諾伊州)</t>
+    <t>富兰克林县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E7%88%BE%E9%A0%93%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>富爾頓縣 (伊利諾伊州)</t>
+    <t>富尔顿县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%89%E5%BB%B7%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>加拉廷縣 (伊利諾伊州)</t>
+    <t>加拉廷县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格林縣 (伊利諾伊州)</t>
+    <t>格林县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E8%BF%AA%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格蘭迪縣 (伊利諾伊州)</t>
+    <t>格兰迪县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AF%86%E7%88%BE%E9%A0%93%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>漢密爾頓縣 (伊利諾伊州)</t>
+    <t>汉密尔顿县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%80%83%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>漢考克縣 (伊利諾伊州)</t>
+    <t>汉考克县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%B8%81%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哈丁縣 (伊利諾伊州)</t>
+    <t>哈丁县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%BE%B7%E6%A3%AE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>亨德森縣 (伊利諾伊州)</t>
+    <t>亨德森县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1757,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E6%B4%9B%E9%AD%81%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>易洛魁縣 (伊利諾伊州)</t>
+    <t>易洛魁县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1769,31 +1757,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%96%AF%E5%B8%95%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>傑斯帕縣 (伊利諾伊州)</t>
+    <t>杰斯帕县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>傑佛遜縣 (伊利諾伊州)</t>
+    <t>杰佛逊县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>澤西縣 (伊利諾伊州)</t>
+    <t>泽西县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%88%B4%E7%B6%AD%E6%96%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>喬戴維斯縣 (伊利諾伊州)</t>
+    <t>乔戴维斯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E9%81%9C%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>約翰遜縣 (伊利諾伊州)</t>
+    <t>约翰逊县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1817,43 +1805,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%96%A9%E7%88%BE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉薩爾縣 (伊利諾伊州)</t>
+    <t>拉萨尔县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (伊利諾伊州)</t>
+    <t>莱克县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>勞倫斯縣 (伊利諾伊州)</t>
+    <t>劳伦斯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>李縣 (伊利諾伊州)</t>
+    <t>李县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%96%87%E6%96%AF%E9%A0%93%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>利文斯頓縣 (伊利諾伊州)</t>
+    <t>利文斯顿县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A0%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛根縣 (伊利諾伊州)</t>
+    <t>洛根县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%82%AF%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅肯縣 (伊利諾伊州)</t>
+    <t>梅肯县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BA%93%E5%B9%B3%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1865,13 +1853,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%BF%AA%E9%81%9C%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>麥迪遜縣 (伊利諾伊州)</t>
+    <t>麦迪逊县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E6%98%82%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬里昂縣 (伊利諾伊州)</t>
+    <t>马里昂县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%AD%87%E5%B0%94%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1883,7 +1871,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A3%AE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅森縣 (伊利諾伊州)</t>
+    <t>梅森县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E5%85%8B%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1925,19 +1913,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E7%BE%85%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>門羅縣 (伊利諾伊州)</t>
+    <t>门罗县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A6%AC%E5%88%A9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙哥馬利縣 (伊利諾伊州)</t>
+    <t>蒙哥马利县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩根縣 (伊利諾伊州)</t>
+    <t>摩根县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%B0%94%E7%89%B9%E9%87%8C%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1949,13 +1937,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%A0%BC%E7%88%BE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧格爾縣 (伊利諾伊州)</t>
+    <t>奥格尔县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E9%87%8C%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>佩里縣 (伊利諾伊州)</t>
+    <t>佩里县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E4%BA%9A%E7%89%B9%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -1967,25 +1955,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>派克縣 (伊利諾伊州)</t>
+    <t>派克县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%99%AE%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波普縣 (伊利諾伊州)</t>
+    <t>波普县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%93%A6%E6%96%AF%E5%9F%BA%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普瓦斯基縣 (伊利諾伊州)</t>
+    <t>普瓦斯基县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%89%B9%E5%8D%97%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普特南縣 (伊利諾伊州)</t>
+    <t>普特南县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E9%81%93%E5%A4%AB%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2015,13 +2003,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%87%B1%E5%8B%92%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯凱勒縣 (伊利諾伊州)</t>
+    <t>斯凯勒县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E7%89%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯科特縣 (伊利諾伊州)</t>
+    <t>斯科特县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%B0%94%E6%AF%94%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2039,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A1%94%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯塔克縣 (伊利諾伊州)</t>
+    <t>斯塔克县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%92%82%E8%8A%AC%E6%96%AF%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2063,43 +2051,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E7%B1%B3%E5%88%A9%E6%81%A9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>弗米利恩縣 (伊利諾伊州)</t>
+    <t>弗米利恩县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B7%B4%E4%BB%80%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沃巴什縣 (伊利諾伊州)</t>
+    <t>沃巴什县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%80%AB%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沃倫縣 (伊利諾伊州)</t>
+    <t>沃伦县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>華盛頓縣 (伊利諾伊州)</t>
+    <t>华盛顿县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%81%A9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>韋恩縣 (伊利諾伊州)</t>
+    <t>韦恩县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E7%89%B9%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>懷特縣 (伊利諾伊州)</t>
+    <t>怀特县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E7%89%B9%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>懷特塞德縣 (伊利諾伊州)</t>
+    <t>怀特塞德县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2111,7 +2099,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E6%A3%AE%E7%B8%A3_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>威廉森縣 (田納西州)</t>
+    <t>威廉森县 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E7%BA%B3%E8%B4%9D%E6%88%88%E5%8E%BF_(%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E)</t>
@@ -2123,13 +2111,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E7%A6%8F%E5%BE%B7%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伍德福德縣 (伊利諾伊州)</t>
+    <t>伍德福德县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2147,7 +2135,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3458,7 +3446,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
         <v>10</v>
@@ -3484,10 +3472,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -3513,10 +3501,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -3542,10 +3530,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3600,10 +3588,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3629,10 +3617,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3658,10 +3646,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -3687,10 +3675,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3716,10 +3704,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3745,10 +3733,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3774,10 +3762,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3803,10 +3791,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3832,10 +3820,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3861,10 +3849,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3890,10 +3878,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3919,10 +3907,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3948,10 +3936,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3977,10 +3965,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4006,10 +3994,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4035,10 +4023,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -4064,10 +4052,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4093,10 +4081,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4122,10 +4110,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4151,10 +4139,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4180,10 +4168,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4209,10 +4197,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" t="s">
         <v>67</v>
-      </c>
-      <c r="F59" t="s">
-        <v>68</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4238,10 +4226,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4267,10 +4255,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4296,10 +4284,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4325,10 +4313,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4354,10 +4342,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4383,10 +4371,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4412,10 +4400,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4441,10 +4429,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4470,10 +4458,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -4499,10 +4487,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4528,10 +4516,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4557,10 +4545,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4586,10 +4574,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4615,10 +4603,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4644,10 +4632,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4673,10 +4661,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4702,10 +4690,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4731,10 +4719,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4760,10 +4748,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4789,10 +4777,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4818,10 +4806,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4847,10 +4835,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4876,10 +4864,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4905,10 +4893,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4934,10 +4922,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4963,10 +4951,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4992,10 +4980,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -5021,10 +5009,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -5050,10 +5038,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5079,10 +5067,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -5108,10 +5096,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5137,10 +5125,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5166,10 +5154,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5195,10 +5183,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5224,10 +5212,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5253,10 +5241,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5282,10 +5270,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5311,10 +5299,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5340,10 +5328,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>168</v>
+      </c>
+      <c r="F98" t="s">
         <v>169</v>
-      </c>
-      <c r="F98" t="s">
-        <v>170</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5369,10 +5357,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5398,10 +5386,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5427,10 +5415,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5456,10 +5444,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5485,10 +5473,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5543,10 +5531,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
         <v>201</v>
-      </c>
-      <c r="F105" t="s">
-        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5572,10 +5560,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
         <v>203</v>
-      </c>
-      <c r="F106" t="s">
-        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5601,10 +5589,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
         <v>205</v>
-      </c>
-      <c r="F107" t="s">
-        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5630,10 +5618,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" t="s">
         <v>207</v>
-      </c>
-      <c r="F108" t="s">
-        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5659,10 +5647,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
         <v>209</v>
-      </c>
-      <c r="F109" t="s">
-        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5688,10 +5676,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>210</v>
+      </c>
+      <c r="F110" t="s">
         <v>211</v>
-      </c>
-      <c r="F110" t="s">
-        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5717,10 +5705,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>212</v>
+      </c>
+      <c r="F111" t="s">
         <v>213</v>
-      </c>
-      <c r="F111" t="s">
-        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5746,10 +5734,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F112" t="s">
         <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5775,10 +5763,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" t="s">
         <v>217</v>
-      </c>
-      <c r="F113" t="s">
-        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5804,10 +5792,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>218</v>
+      </c>
+      <c r="F114" t="s">
         <v>219</v>
-      </c>
-      <c r="F114" t="s">
-        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5833,10 +5821,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>220</v>
+      </c>
+      <c r="F115" t="s">
         <v>221</v>
-      </c>
-      <c r="F115" t="s">
-        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5862,10 +5850,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>222</v>
+      </c>
+      <c r="F116" t="s">
         <v>223</v>
-      </c>
-      <c r="F116" t="s">
-        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5891,10 +5879,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" t="s">
         <v>225</v>
-      </c>
-      <c r="F117" t="s">
-        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5920,10 +5908,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
-      </c>
-      <c r="F118" t="s">
-        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5949,10 +5937,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5978,10 +5966,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6007,10 +5995,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6036,10 +6024,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>234</v>
+      </c>
+      <c r="F122" t="s">
         <v>235</v>
-      </c>
-      <c r="F122" t="s">
-        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6065,10 +6053,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
-      </c>
-      <c r="F123" t="s">
-        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6094,10 +6082,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
         <v>239</v>
-      </c>
-      <c r="F124" t="s">
-        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6123,10 +6111,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
         <v>241</v>
-      </c>
-      <c r="F125" t="s">
-        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6152,10 +6140,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126" t="s">
         <v>243</v>
-      </c>
-      <c r="F126" t="s">
-        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6181,10 +6169,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6210,10 +6198,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>246</v>
+      </c>
+      <c r="F128" t="s">
         <v>247</v>
-      </c>
-      <c r="F128" t="s">
-        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6239,10 +6227,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" t="s">
         <v>249</v>
-      </c>
-      <c r="F129" t="s">
-        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6268,10 +6256,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" t="s">
         <v>251</v>
-      </c>
-      <c r="F130" t="s">
-        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6297,10 +6285,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" t="s">
         <v>253</v>
-      </c>
-      <c r="F131" t="s">
-        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6326,10 +6314,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
-      </c>
-      <c r="F132" t="s">
-        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6355,10 +6343,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
         <v>257</v>
-      </c>
-      <c r="F133" t="s">
-        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6384,10 +6372,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6413,10 +6401,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
         <v>261</v>
-      </c>
-      <c r="F135" t="s">
-        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6442,10 +6430,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" t="s">
         <v>263</v>
-      </c>
-      <c r="F136" t="s">
-        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6471,10 +6459,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6500,10 +6488,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
         <v>267</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6529,10 +6517,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
         <v>269</v>
-      </c>
-      <c r="F139" t="s">
-        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6558,10 +6546,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
         <v>271</v>
-      </c>
-      <c r="F140" t="s">
-        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6587,10 +6575,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
         <v>273</v>
-      </c>
-      <c r="F141" t="s">
-        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6616,10 +6604,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
         <v>275</v>
-      </c>
-      <c r="F142" t="s">
-        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6645,10 +6633,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6674,10 +6662,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" t="s">
         <v>279</v>
-      </c>
-      <c r="F144" t="s">
-        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6703,10 +6691,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
         <v>281</v>
-      </c>
-      <c r="F145" t="s">
-        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6732,10 +6720,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>282</v>
+      </c>
+      <c r="F146" t="s">
         <v>283</v>
-      </c>
-      <c r="F146" t="s">
-        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6761,10 +6749,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>284</v>
+      </c>
+      <c r="F147" t="s">
         <v>285</v>
-      </c>
-      <c r="F147" t="s">
-        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -6790,10 +6778,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>286</v>
+      </c>
+      <c r="F148" t="s">
         <v>287</v>
-      </c>
-      <c r="F148" t="s">
-        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6819,10 +6807,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>288</v>
+      </c>
+      <c r="F149" t="s">
         <v>289</v>
-      </c>
-      <c r="F149" t="s">
-        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>85</v>
@@ -6848,10 +6836,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" t="s">
         <v>291</v>
-      </c>
-      <c r="F150" t="s">
-        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6877,10 +6865,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>292</v>
+      </c>
+      <c r="F151" t="s">
         <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6906,10 +6894,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>294</v>
+      </c>
+      <c r="F152" t="s">
         <v>295</v>
-      </c>
-      <c r="F152" t="s">
-        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6935,10 +6923,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F153" t="s">
         <v>297</v>
-      </c>
-      <c r="F153" t="s">
-        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6964,10 +6952,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="F154" t="s">
         <v>299</v>
-      </c>
-      <c r="F154" t="s">
-        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6993,10 +6981,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>300</v>
+      </c>
+      <c r="F155" t="s">
         <v>301</v>
-      </c>
-      <c r="F155" t="s">
-        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7022,10 +7010,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F156" t="s">
         <v>303</v>
-      </c>
-      <c r="F156" t="s">
-        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7051,10 +7039,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>304</v>
+      </c>
+      <c r="F157" t="s">
         <v>305</v>
-      </c>
-      <c r="F157" t="s">
-        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7080,10 +7068,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>306</v>
+      </c>
+      <c r="F158" t="s">
         <v>307</v>
-      </c>
-      <c r="F158" t="s">
-        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7109,10 +7097,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>308</v>
+      </c>
+      <c r="F159" t="s">
         <v>309</v>
-      </c>
-      <c r="F159" t="s">
-        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7138,10 +7126,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>310</v>
+      </c>
+      <c r="F160" t="s">
         <v>311</v>
-      </c>
-      <c r="F160" t="s">
-        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7167,10 +7155,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>312</v>
+      </c>
+      <c r="F161" t="s">
         <v>313</v>
-      </c>
-      <c r="F161" t="s">
-        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7196,10 +7184,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>92</v>
+      </c>
+      <c r="F162" t="s">
         <v>93</v>
-      </c>
-      <c r="F162" t="s">
-        <v>94</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7225,10 +7213,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>314</v>
+      </c>
+      <c r="F163" t="s">
         <v>315</v>
-      </c>
-      <c r="F163" t="s">
-        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7254,10 +7242,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" t="s">
         <v>317</v>
-      </c>
-      <c r="F164" t="s">
-        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7283,10 +7271,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>90</v>
+      </c>
+      <c r="F165" t="s">
         <v>91</v>
-      </c>
-      <c r="F165" t="s">
-        <v>92</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7312,10 +7300,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>318</v>
+      </c>
+      <c r="F166" t="s">
         <v>319</v>
-      </c>
-      <c r="F166" t="s">
-        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7341,10 +7329,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>320</v>
+      </c>
+      <c r="F167" t="s">
         <v>321</v>
-      </c>
-      <c r="F167" t="s">
-        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7370,10 +7358,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>322</v>
+      </c>
+      <c r="F168" t="s">
         <v>323</v>
-      </c>
-      <c r="F168" t="s">
-        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7399,10 +7387,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>324</v>
+      </c>
+      <c r="F169" t="s">
         <v>325</v>
-      </c>
-      <c r="F169" t="s">
-        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7428,10 +7416,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>326</v>
+      </c>
+      <c r="F170" t="s">
         <v>327</v>
-      </c>
-      <c r="F170" t="s">
-        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7457,10 +7445,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>328</v>
+      </c>
+      <c r="F171" t="s">
         <v>329</v>
-      </c>
-      <c r="F171" t="s">
-        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7486,10 +7474,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>330</v>
+      </c>
+      <c r="F172" t="s">
         <v>331</v>
-      </c>
-      <c r="F172" t="s">
-        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7515,10 +7503,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7544,10 +7532,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7573,10 +7561,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7602,10 +7590,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7631,10 +7619,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7660,10 +7648,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7689,10 +7677,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7718,10 +7706,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7747,10 +7735,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7776,10 +7764,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7805,10 +7793,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7834,10 +7822,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7863,10 +7851,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7892,10 +7880,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7921,10 +7909,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7950,10 +7938,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7979,10 +7967,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8008,10 +7996,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8037,10 +8025,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8066,10 +8054,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8095,10 +8083,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8124,10 +8112,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8153,10 +8141,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8182,10 +8170,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8211,10 +8199,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>84</v>
+      </c>
+      <c r="F197" t="s">
         <v>85</v>
-      </c>
-      <c r="F197" t="s">
-        <v>86</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8240,10 +8228,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8269,10 +8257,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8298,10 +8286,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8327,10 +8315,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8356,10 +8344,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8385,10 +8373,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8414,10 +8402,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8443,10 +8431,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8472,10 +8460,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8501,10 +8489,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8530,10 +8518,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8559,10 +8547,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8588,10 +8576,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8617,10 +8605,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8646,10 +8634,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8675,10 +8663,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8704,10 +8692,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8733,10 +8721,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8762,10 +8750,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8791,10 +8779,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8820,10 +8808,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8849,10 +8837,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8878,10 +8866,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="G220" t="n">
         <v>14</v>
@@ -8907,10 +8895,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G221" t="n">
         <v>4</v>
@@ -8936,10 +8924,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -8965,10 +8953,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8994,10 +8982,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
         <v>6</v>
@@ -9023,10 +9011,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9052,10 +9040,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9081,10 +9069,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9110,10 +9098,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9139,10 +9127,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9168,10 +9156,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9197,10 +9185,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9226,10 +9214,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9255,10 +9243,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9284,10 +9272,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9313,10 +9301,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9342,10 +9330,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9371,10 +9359,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9400,10 +9388,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9429,10 +9417,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9458,10 +9446,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9487,10 +9475,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9516,10 +9504,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9545,10 +9533,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9574,10 +9562,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9603,10 +9591,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9632,10 +9620,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9661,10 +9649,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9690,10 +9678,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9719,10 +9707,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>208</v>
+      </c>
+      <c r="F249" t="s">
         <v>209</v>
-      </c>
-      <c r="F249" t="s">
-        <v>210</v>
       </c>
       <c r="G249" t="n">
         <v>4</v>
@@ -9748,10 +9736,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>174</v>
+      </c>
+      <c r="F250" t="s">
         <v>175</v>
-      </c>
-      <c r="F250" t="s">
-        <v>176</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9777,10 +9765,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9806,10 +9794,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9835,10 +9823,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9864,10 +9852,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>160</v>
+      </c>
+      <c r="F254" t="s">
         <v>161</v>
-      </c>
-      <c r="F254" t="s">
-        <v>162</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9893,10 +9881,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F255" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9922,10 +9910,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F256" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9951,10 +9939,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9980,10 +9968,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F258" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10009,10 +9997,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F259" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10038,10 +10026,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F260" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10067,10 +10055,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F261" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10096,10 +10084,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F262" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10125,10 +10113,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F263" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10154,10 +10142,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F264" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10183,10 +10171,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10212,10 +10200,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10241,10 +10229,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10270,10 +10258,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10299,10 +10287,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10328,10 +10316,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10357,10 +10345,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10386,10 +10374,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10415,10 +10403,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10444,10 +10432,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10473,10 +10461,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10502,10 +10490,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G276" t="n">
         <v>3</v>
@@ -10531,10 +10519,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10560,10 +10548,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10589,10 +10577,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>97</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -10618,10 +10606,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10647,10 +10635,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10676,10 +10664,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F282" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10705,10 +10693,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F283" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10734,10 +10722,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10763,10 +10751,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10792,10 +10780,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10821,10 +10809,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10850,10 +10838,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F288" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10879,10 +10867,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F289" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10908,10 +10896,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10937,10 +10925,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10966,10 +10954,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10995,10 +10983,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11024,10 +11012,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11053,10 +11041,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11082,10 +11070,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11111,10 +11099,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11140,10 +11128,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11169,10 +11157,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11198,10 +11186,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11227,10 +11215,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11256,10 +11244,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11285,10 +11273,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11314,10 +11302,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11343,10 +11331,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11372,10 +11360,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11401,10 +11389,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F307" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11430,10 +11418,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F308" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11459,10 +11447,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F309" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11488,10 +11476,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F310" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11517,10 +11505,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F311" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11546,10 +11534,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F312" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11575,10 +11563,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F313" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11604,10 +11592,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F314" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11633,10 +11621,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F315" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11662,10 +11650,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F316" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11691,10 +11679,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F317" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11720,10 +11708,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F318" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11749,10 +11737,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F319" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11778,10 +11766,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F320" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11807,10 +11795,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F321" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11836,10 +11824,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F322" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11865,10 +11853,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F323" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11894,10 +11882,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F324" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11923,10 +11911,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F325" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11952,10 +11940,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F326" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11981,10 +11969,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F327" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12010,10 +11998,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F328" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12039,10 +12027,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F329" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12068,10 +12056,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F330" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12097,10 +12085,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F331" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12126,10 +12114,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F332" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12155,10 +12143,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F333" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12184,10 +12172,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F334" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12213,10 +12201,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F335" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12242,10 +12230,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F336" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12271,10 +12259,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F337" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12300,10 +12288,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F338" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12329,10 +12317,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F339" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12358,10 +12346,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12387,10 +12375,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F341" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -12416,10 +12404,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F342" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12445,10 +12433,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>98</v>
+      </c>
+      <c r="F343" t="s">
         <v>99</v>
-      </c>
-      <c r="F343" t="s">
-        <v>100</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -12474,10 +12462,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F344" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12503,10 +12491,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F345" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12532,10 +12520,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F346" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12561,10 +12549,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F347" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12590,10 +12578,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F348" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12619,10 +12607,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F349" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12648,10 +12636,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F350" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12677,10 +12665,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F351" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12706,10 +12694,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F352" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12735,10 +12723,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F353" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12764,10 +12752,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F354" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12793,10 +12781,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F355" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12822,10 +12810,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F356" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12851,10 +12839,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F357" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -12880,10 +12868,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F358" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12909,10 +12897,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F359" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12938,10 +12926,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F360" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12967,10 +12955,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F361" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12996,10 +12984,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F362" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13025,10 +13013,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F363" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G363" t="n">
         <v>3</v>
@@ -13054,10 +13042,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F364" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13083,10 +13071,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F365" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13112,10 +13100,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F366" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13141,10 +13129,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F367" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13170,10 +13158,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F368" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
